--- a/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_de_Bigorre_(Ayguerote)/Centre_hospitalier_de_Bigorre_(Ayguerote).xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_de_Bigorre_(Ayguerote)/Centre_hospitalier_de_Bigorre_(Ayguerote).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier de Bigorre (Ayguerote), est un centre hospitalier situé dans le quartier du centre-ville à Tarbes (canton de Tarbes 3), département des Hautes-Pyrénées en région Occitanie.
-L'hôpital est inscrit aux monuments historiques en 1979[1].
+L'hôpital est inscrit aux monuments historiques en 1979.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La création d'un "hôpital de la Clôture" est décidée à Tarbes en 1663. Le site choisi se trouve au lieu-dit de la Sède, au bord du canal de l'Ayguerote, et les travaux de construction vont durer de 1703 à 1738.
 La gestion de l'établissement est confiée aux Filles de la Charité pendant la  Révolution et durant la première moitié du XIXe siècle. A cette époque, 10 religieuses gèrent l'hôpital le plus important du département.
@@ -546,10 +560,12 @@
           <t>Chapelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La chapelle de l'hopital est construite dans le deuxième quart du XVIIIe siècle. Elle est aujourd'hui le seul vestige conservé de l'hopital d'Ancien Régime. Les façades et les toitures sont protégées au titre des Monuments historiques depuis 1979 et ont été restaurées dans les années 1990.
-La chapelle de l'hôpital est inscrit partiellement depuis le 21 mars 1979 au titre des monuments historiques[2].
+La chapelle de l'hôpital est inscrit partiellement depuis le 21 mars 1979 au titre des monuments historiques.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre hospitalier de Bigorre (Ayguerote) a une fonction gériatrique et a une capacité de 153 lits en hébergement permanent et 4 lits en hébergement temporaire.
 </t>
@@ -609,7 +627,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 1er juillet 1987,  le regroupement de trois sites : un site de court séjour (« La Gespe » à Tarbes) et deux sites gériatriques : L’Ayguerote  à Tarbes et Vic en Bigorre forme le Centre Hospitalier Intercommunal de Tarbes - Vic en Bigorre (CHIC-TV) et le 6 juin 2003, l’établissement change de nom et devient le Centre Hospitalier de Bigorre (CHB).
 </t>
